--- a/public/sampleData/ip_jt.xlsx
+++ b/public/sampleData/ip_jt.xlsx
@@ -292,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,19 +431,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -575,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -645,20 +632,8 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -1455,7 +1430,7 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1519,7 +1494,7 @@
       <c r="J1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="23" t="s">
         <v>74</v>
       </c>
       <c r="L1" s="19" t="s">
@@ -1774,70 +1749,61 @@
       </c>
     </row>
     <row r="4" spans="1:31">
-      <c r="B4" s="21" t="s">
+      <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="24" t="s">
+      <c r="L4" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4">
         <v>18404104567</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21" t="s">
+      <c r="T4" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21" t="s">
+      <c r="AA4" t="s">
         <v>65</v>
       </c>
-      <c r="AB4" s="21" t="s">
+      <c r="AB4" t="s">
         <v>66</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AC4">
         <v>18841050815</v>
       </c>
-      <c r="AD4" s="21" t="s">
+      <c r="AD4" t="s">
         <v>61</v>
       </c>
     </row>
